--- a/output/SPX_12884390000199.xlsx
+++ b/output/SPX_12884390000199.xlsx
@@ -1714,10 +1714,10 @@
         <v>44165</v>
       </c>
       <c r="B121">
-        <v>2.3290933</v>
+        <v>2.3286051</v>
       </c>
       <c r="C121">
-        <v>0.001966616635953766</v>
+        <v>0.001819681702576847</v>
       </c>
     </row>
   </sheetData>

--- a/output/SPX_12884390000199.xlsx
+++ b/output/SPX_12884390000199.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>SPX CAPITAL PORTFOLIO FUNDO DE INVESTIMENTO EM QUOTAS DE FUNDOS DE INVESTIMENTO MULTIMERCADO</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,1338 +383,978 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C121"/>
+  <dimension ref="A1:B121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>40543</v>
       </c>
       <c r="B2">
-        <v>0.006898599999999977</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>40574</v>
       </c>
       <c r="B3">
-        <v>0.0251439</v>
-      </c>
-      <c r="C3">
         <v>0.01812029533063209</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>40602</v>
       </c>
       <c r="B4">
-        <v>0.03834120000000008</v>
-      </c>
-      <c r="C4">
         <v>0.01287360730527687</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>40633</v>
       </c>
       <c r="B5">
-        <v>0.03730870000000008</v>
-      </c>
-      <c r="C5">
         <v>-0.0009943744888482042</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>40663</v>
       </c>
       <c r="B6">
-        <v>0.05239400000000005</v>
-      </c>
-      <c r="C6">
         <v>0.01454272966186432</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>40694</v>
       </c>
       <c r="B7">
-        <v>0.05296970000000001</v>
-      </c>
-      <c r="C7">
         <v>0.0005470384665817729</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>40724</v>
       </c>
       <c r="B8">
-        <v>0.05286649999999993</v>
-      </c>
-      <c r="C8">
         <v>-9.800851819385947e-05</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>40755</v>
       </c>
       <c r="B9">
-        <v>0.06102019999999997</v>
-      </c>
-      <c r="C9">
         <v>0.007744286668822653</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>40786</v>
       </c>
       <c r="B10">
-        <v>0.08336879999999991</v>
-      </c>
-      <c r="C10">
         <v>0.02106331246096915</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>40816</v>
       </c>
       <c r="B11">
-        <v>0.1054309</v>
-      </c>
-      <c r="C11">
         <v>0.02036434868716919</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>40847</v>
       </c>
       <c r="B12">
-        <v>0.1086712999999999</v>
-      </c>
-      <c r="C12">
         <v>0.002931345595640567</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>40877</v>
       </c>
       <c r="B13">
-        <v>0.1256883</v>
-      </c>
-      <c r="C13">
         <v>0.01534900380302084</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>40908</v>
       </c>
       <c r="B14">
-        <v>0.1248792000000001</v>
-      </c>
-      <c r="C14">
         <v>-0.0007187602465086318</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>40939</v>
       </c>
       <c r="B15">
-        <v>0.1491941999999999</v>
-      </c>
-      <c r="C15">
         <v>0.02161565437426516</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>40968</v>
       </c>
       <c r="B16">
-        <v>0.1688826000000001</v>
-      </c>
-      <c r="C16">
         <v>0.01713235239091904</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>40999</v>
       </c>
       <c r="B17">
-        <v>0.1844828999999999</v>
-      </c>
-      <c r="C17">
         <v>0.01334633606488778</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>41029</v>
       </c>
       <c r="B18">
-        <v>0.1892737</v>
-      </c>
-      <c r="C18">
         <v>0.004044634160611515</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>41060</v>
       </c>
       <c r="B19">
-        <v>0.2291970000000001</v>
-      </c>
-      <c r="C19">
         <v>0.0335694802634583</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>41090</v>
       </c>
       <c r="B20">
-        <v>0.225849</v>
-      </c>
-      <c r="C20">
         <v>-0.002723729394067953</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>41121</v>
       </c>
       <c r="B21">
-        <v>0.2276381999999999</v>
-      </c>
-      <c r="C21">
         <v>0.001459559864224635</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>41152</v>
       </c>
       <c r="B22">
-        <v>0.2355718</v>
-      </c>
-      <c r="C22">
         <v>0.006462490333063897</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>41182</v>
       </c>
       <c r="B23">
-        <v>0.2311319999999999</v>
-      </c>
-      <c r="C23">
         <v>-0.003593316066294205</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>41213</v>
       </c>
       <c r="B24">
-        <v>0.2572922</v>
-      </c>
-      <c r="C24">
         <v>0.02124889938690577</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>41243</v>
       </c>
       <c r="B25">
-        <v>0.2418785999999999</v>
-      </c>
-      <c r="C25">
         <v>-0.0122593618253577</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>41274</v>
       </c>
       <c r="B26">
-        <v>0.2584818</v>
-      </c>
-      <c r="C26">
         <v>0.01336942274389785</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>41305</v>
       </c>
       <c r="B27">
-        <v>0.2817693999999999</v>
-      </c>
-      <c r="C27">
         <v>0.01850451869864145</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>41333</v>
       </c>
       <c r="B28">
-        <v>0.2920448</v>
-      </c>
-      <c r="C28">
         <v>0.008016574588221692</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>41364</v>
       </c>
       <c r="B29">
-        <v>0.3148500999999999</v>
-      </c>
-      <c r="C29">
         <v>0.01765054895929308</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>41394</v>
       </c>
       <c r="B30">
-        <v>0.2971896000000001</v>
-      </c>
-      <c r="C30">
         <v>-0.01343156911955201</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>41425</v>
       </c>
       <c r="B31">
-        <v>0.3506653</v>
-      </c>
-      <c r="C31">
         <v>0.04122427438517851</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>41455</v>
       </c>
       <c r="B32">
-        <v>0.4013926999999999</v>
-      </c>
-      <c r="C32">
         <v>0.03755734303679814</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>41486</v>
       </c>
       <c r="B33">
-        <v>0.3966259000000001</v>
-      </c>
-      <c r="C33">
         <v>-0.003401473405705513</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:2">
       <c r="A34" s="2">
         <v>41517</v>
       </c>
       <c r="B34">
-        <v>0.4468243999999999</v>
-      </c>
-      <c r="C34">
         <v>0.03594269589300891</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:2">
       <c r="A35" s="2">
         <v>41547</v>
       </c>
       <c r="B35">
-        <v>0.4172929999999999</v>
-      </c>
-      <c r="C35">
         <v>-0.02041118466069547</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:2">
       <c r="A36" s="2">
         <v>41578</v>
       </c>
       <c r="B36">
-        <v>0.3963080000000001</v>
-      </c>
-      <c r="C36">
         <v>-0.01480639500794811</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="2">
         <v>41608</v>
       </c>
       <c r="B37">
-        <v>0.4395785000000001</v>
-      </c>
-      <c r="C37">
         <v>0.03098922300810414</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="2">
         <v>41639</v>
       </c>
       <c r="B38">
-        <v>0.4676665</v>
-      </c>
-      <c r="C38">
         <v>0.01951126666590253</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:2">
       <c r="A39" s="2">
         <v>41670</v>
       </c>
       <c r="B39">
-        <v>0.4854698</v>
-      </c>
-      <c r="C39">
         <v>0.01213034432549898</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:2">
       <c r="A40" s="2">
         <v>41698</v>
       </c>
       <c r="B40">
-        <v>0.4861337999999999</v>
-      </c>
-      <c r="C40">
         <v>0.0004469966336575482</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:2">
       <c r="A41" s="2">
         <v>41729</v>
       </c>
       <c r="B41">
-        <v>0.4887315999999999</v>
-      </c>
-      <c r="C41">
         <v>0.001748025648834473</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:2">
       <c r="A42" s="2">
         <v>41759</v>
       </c>
       <c r="B42">
-        <v>0.4850407000000001</v>
-      </c>
-      <c r="C42">
         <v>-0.002479224596293794</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:2">
       <c r="A43" s="2">
         <v>41790</v>
       </c>
       <c r="B43">
-        <v>0.4795636000000001</v>
-      </c>
-      <c r="C43">
         <v>-0.003688181744783137</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:2">
       <c r="A44" s="2">
         <v>41820</v>
       </c>
       <c r="B44">
-        <v>0.4908212999999999</v>
-      </c>
-      <c r="C44">
         <v>0.00760879762113631</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:2">
       <c r="A45" s="2">
         <v>41851</v>
       </c>
       <c r="B45">
-        <v>0.5032532999999999</v>
-      </c>
-      <c r="C45">
         <v>0.008339027621888651</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:2">
       <c r="A46" s="2">
         <v>41882</v>
       </c>
       <c r="B46">
-        <v>0.4976111999999999</v>
-      </c>
-      <c r="C46">
         <v>-0.003753259680188248</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:2">
       <c r="A47" s="2">
         <v>41912</v>
       </c>
       <c r="B47">
-        <v>0.5331375</v>
-      </c>
-      <c r="C47">
         <v>0.0237219780407627</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:2">
       <c r="A48" s="2">
         <v>41943</v>
       </c>
       <c r="B48">
-        <v>0.5251827</v>
-      </c>
-      <c r="C48">
         <v>-0.005188575714833221</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:2">
       <c r="A49" s="2">
         <v>41973</v>
       </c>
       <c r="B49">
-        <v>0.5574517000000001</v>
-      </c>
-      <c r="C49">
         <v>0.02115746526629247</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:2">
       <c r="A50" s="2">
         <v>42004</v>
       </c>
       <c r="B50">
-        <v>0.5441480999999999</v>
-      </c>
-      <c r="C50">
         <v>-0.008541902134107993</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:2">
       <c r="A51" s="2">
         <v>42035</v>
       </c>
       <c r="B51">
-        <v>0.5845221</v>
-      </c>
-      <c r="C51">
         <v>0.02614645577066099</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:2">
       <c r="A52" s="2">
         <v>42063</v>
       </c>
       <c r="B52">
-        <v>0.6183274999999999</v>
-      </c>
-      <c r="C52">
         <v>0.02133476080895291</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:2">
       <c r="A53" s="2">
         <v>42094</v>
       </c>
       <c r="B53">
-        <v>0.699921</v>
-      </c>
-      <c r="C53">
         <v>0.05041841036502204</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:2">
       <c r="A54" s="2">
         <v>42124</v>
       </c>
       <c r="B54">
-        <v>0.6754952999999999</v>
-      </c>
-      <c r="C54">
         <v>-0.01436872654670429</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:2">
       <c r="A55" s="2">
         <v>42155</v>
       </c>
       <c r="B55">
-        <v>0.7212414</v>
-      </c>
-      <c r="C55">
         <v>0.02730303093061504</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:2">
       <c r="A56" s="2">
         <v>42185</v>
       </c>
       <c r="B56">
-        <v>0.7375106</v>
-      </c>
-      <c r="C56">
         <v>0.00945201527223305</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:2">
       <c r="A57" s="2">
         <v>42216</v>
       </c>
       <c r="B57">
-        <v>0.8288968999999999</v>
-      </c>
-      <c r="C57">
         <v>0.05259611078056148</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:2">
       <c r="A58" s="2">
         <v>42247</v>
       </c>
       <c r="B58">
-        <v>0.8623255000000001</v>
-      </c>
-      <c r="C58">
         <v>0.01827801228161086</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:2">
       <c r="A59" s="2">
         <v>42277</v>
       </c>
       <c r="B59">
-        <v>0.8924941</v>
-      </c>
-      <c r="C59">
         <v>0.01619942378493988</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:2">
       <c r="A60" s="2">
         <v>42308</v>
       </c>
       <c r="B60">
-        <v>0.9032728000000001</v>
-      </c>
-      <c r="C60">
         <v>0.005695499922562686</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:2">
       <c r="A61" s="2">
         <v>42338</v>
       </c>
       <c r="B61">
-        <v>0.9410635999999999</v>
-      </c>
-      <c r="C61">
         <v>0.01985569278350408</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:2">
       <c r="A62" s="2">
         <v>42369</v>
       </c>
       <c r="B62">
-        <v>0.9697549000000001</v>
-      </c>
-      <c r="C62">
         <v>0.01478122612777866</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:2">
       <c r="A63" s="2">
         <v>42400</v>
       </c>
       <c r="B63">
-        <v>1.0335269</v>
-      </c>
-      <c r="C63">
         <v>0.03237560165480491</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:2">
       <c r="A64" s="2">
         <v>42429</v>
       </c>
       <c r="B64">
-        <v>1.0486193</v>
-      </c>
-      <c r="C64">
         <v>0.007421785273654224</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:2">
       <c r="A65" s="2">
         <v>42460</v>
       </c>
       <c r="B65">
-        <v>0.9856868999999999</v>
-      </c>
-      <c r="C65">
         <v>-0.03071942161240016</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:2">
       <c r="A66" s="2">
         <v>42490</v>
       </c>
       <c r="B66">
-        <v>1.0556009</v>
-      </c>
-      <c r="C66">
         <v>0.03520897478852292</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:2">
       <c r="A67" s="2">
         <v>42521</v>
       </c>
       <c r="B67">
-        <v>1.0920618</v>
-      </c>
-      <c r="C67">
         <v>0.01773734385891745</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:2">
       <c r="A68" s="2">
         <v>42551</v>
       </c>
       <c r="B68">
-        <v>1.0922987</v>
-      </c>
-      <c r="C68">
         <v>0.0001132375726184964</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:2">
       <c r="A69" s="2">
         <v>42582</v>
       </c>
       <c r="B69">
-        <v>1.1004344</v>
-      </c>
-      <c r="C69">
         <v>0.003888402740966246</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:2">
       <c r="A70" s="2">
         <v>42613</v>
       </c>
       <c r="B70">
-        <v>1.1530745</v>
-      </c>
-      <c r="C70">
         <v>0.02506153012919587</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:2">
       <c r="A71" s="2">
         <v>42643</v>
       </c>
       <c r="B71">
-        <v>1.2007503</v>
-      </c>
-      <c r="C71">
         <v>0.02214312602745538</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:2">
       <c r="A72" s="2">
         <v>42674</v>
       </c>
       <c r="B72">
-        <v>1.2619875</v>
-      </c>
-      <c r="C72">
         <v>0.02782560111431076</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:2">
       <c r="A73" s="2">
         <v>42704</v>
       </c>
       <c r="B73">
-        <v>1.3072438</v>
-      </c>
-      <c r="C73">
         <v>0.02000731657447274</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:2">
       <c r="A74" s="2">
         <v>42735</v>
       </c>
       <c r="B74">
-        <v>1.3534896</v>
-      </c>
-      <c r="C74">
         <v>0.02004374223478234</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:2">
       <c r="A75" s="2">
         <v>42766</v>
       </c>
       <c r="B75">
-        <v>1.4172116</v>
-      </c>
-      <c r="C75">
         <v>0.02707553923331552</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:2">
       <c r="A76" s="2">
         <v>42794</v>
       </c>
       <c r="B76">
-        <v>1.441213</v>
-      </c>
-      <c r="C76">
         <v>0.009929374821798786</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:2">
       <c r="A77" s="2">
         <v>42825</v>
       </c>
       <c r="B77">
-        <v>1.4884618</v>
-      </c>
-      <c r="C77">
         <v>0.01935464050043989</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:2">
       <c r="A78" s="2">
         <v>42855</v>
       </c>
       <c r="B78">
-        <v>1.4857546</v>
-      </c>
-      <c r="C78">
         <v>-0.001087900967577715</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:2">
       <c r="A79" s="2">
         <v>42886</v>
       </c>
       <c r="B79">
-        <v>1.5114462</v>
-      </c>
-      <c r="C79">
         <v>0.01033553352370342</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:2">
       <c r="A80" s="2">
         <v>42916</v>
       </c>
       <c r="B80">
-        <v>1.5453624</v>
-      </c>
-      <c r="C80">
         <v>0.01350464923357708</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:2">
       <c r="A81" s="2">
         <v>42947</v>
       </c>
       <c r="B81">
-        <v>1.6180082</v>
-      </c>
-      <c r="C81">
         <v>0.02854045459302745</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:2">
       <c r="A82" s="2">
         <v>42978</v>
       </c>
       <c r="B82">
-        <v>1.6300321</v>
-      </c>
-      <c r="C82">
         <v>0.004592766363375134</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:2">
       <c r="A83" s="2">
         <v>43008</v>
       </c>
       <c r="B83">
-        <v>1.6925421</v>
-      </c>
-      <c r="C83">
         <v>0.02376777074317826</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:2">
       <c r="A84" s="2">
         <v>43039</v>
       </c>
       <c r="B84">
-        <v>1.6845331</v>
-      </c>
-      <c r="C84">
         <v>-0.002974512450520272</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:2">
       <c r="A85" s="2">
         <v>43069</v>
       </c>
       <c r="B85">
-        <v>1.7133579</v>
-      </c>
-      <c r="C85">
         <v>0.01073736062334274</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:2">
       <c r="A86" s="2">
         <v>43100</v>
       </c>
       <c r="B86">
-        <v>1.7498644</v>
-      </c>
-      <c r="C86">
         <v>0.01345436221296126</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:2">
       <c r="A87" s="2">
         <v>43131</v>
       </c>
       <c r="B87">
-        <v>1.8640697</v>
-      </c>
-      <c r="C87">
         <v>0.04153124786807671</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:2">
       <c r="A88" s="2">
         <v>43159</v>
       </c>
       <c r="B88">
-        <v>1.8703687</v>
-      </c>
-      <c r="C88">
         <v>0.002199317984475035</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:2">
       <c r="A89" s="2">
         <v>43190</v>
       </c>
       <c r="B89">
-        <v>1.8821351</v>
-      </c>
-      <c r="C89">
         <v>0.004099264320991169</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:2">
       <c r="A90" s="2">
         <v>43220</v>
       </c>
       <c r="B90">
-        <v>1.9148353</v>
-      </c>
-      <c r="C90">
         <v>0.01134582483659408</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:2">
       <c r="A91" s="2">
         <v>43251</v>
       </c>
       <c r="B91">
-        <v>1.8992446</v>
-      </c>
-      <c r="C91">
         <v>-0.005348741316533401</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:2">
       <c r="A92" s="2">
         <v>43281</v>
       </c>
       <c r="B92">
-        <v>1.9647643</v>
-      </c>
-      <c r="C92">
         <v>0.02259888662032883</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:2">
       <c r="A93" s="2">
         <v>43312</v>
       </c>
       <c r="B93">
-        <v>1.954274</v>
-      </c>
-      <c r="C93">
         <v>-0.003538325120819974</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:2">
       <c r="A94" s="2">
         <v>43343</v>
       </c>
       <c r="B94">
-        <v>2.0176768</v>
-      </c>
-      <c r="C94">
         <v>0.02146138103642392</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:2">
       <c r="A95" s="2">
         <v>43373</v>
       </c>
       <c r="B95">
-        <v>2.0487385</v>
-      </c>
-      <c r="C95">
         <v>0.01029324942949494</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:2">
       <c r="A96" s="2">
         <v>43404</v>
       </c>
       <c r="B96">
-        <v>2.0319054</v>
-      </c>
-      <c r="C96">
         <v>-0.005521332839795834</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:2">
       <c r="A97" s="2">
         <v>43434</v>
       </c>
       <c r="B97">
-        <v>1.9550442</v>
-      </c>
-      <c r="C97">
         <v>-0.02535079095805548</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:2">
       <c r="A98" s="2">
         <v>43465</v>
       </c>
       <c r="B98">
-        <v>1.8629307</v>
-      </c>
-      <c r="C98">
         <v>-0.03117161496264587</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:2">
       <c r="A99" s="2">
         <v>43496</v>
       </c>
       <c r="B99">
-        <v>1.894035</v>
-      </c>
-      <c r="C99">
         <v>0.01086449630094077</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:2">
       <c r="A100" s="2">
         <v>43524</v>
       </c>
       <c r="B100">
-        <v>1.9020466</v>
-      </c>
-      <c r="C100">
         <v>0.00276831482687645</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:2">
       <c r="A101" s="2">
         <v>43555</v>
       </c>
       <c r="B101">
-        <v>1.9236115</v>
-      </c>
-      <c r="C101">
         <v>0.0074309282283751</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:2">
       <c r="A102" s="2">
         <v>43585</v>
       </c>
       <c r="B102">
-        <v>1.9238811</v>
-      </c>
-      <c r="C102">
         <v>9.22147145747676e-05</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:2">
       <c r="A103" s="2">
         <v>43616</v>
       </c>
       <c r="B103">
-        <v>1.9712209</v>
-      </c>
-      <c r="C103">
         <v>0.01619074045110791</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:2">
       <c r="A104" s="2">
         <v>43646</v>
       </c>
       <c r="B104">
-        <v>2.0162395</v>
-      </c>
-      <c r="C104">
         <v>0.01515154931765594</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:2">
       <c r="A105" s="2">
         <v>43677</v>
       </c>
       <c r="B105">
-        <v>2.0375424</v>
-      </c>
-      <c r="C105">
         <v>0.007062734905500578</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:2">
       <c r="A106" s="2">
         <v>43708</v>
       </c>
       <c r="B106">
-        <v>2.0841249</v>
-      </c>
-      <c r="C106">
         <v>0.01533558840199234</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:2">
       <c r="A107" s="2">
         <v>43738</v>
       </c>
       <c r="B107">
-        <v>2.0720443</v>
-      </c>
-      <c r="C107">
         <v>-0.003917026836364523</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:2">
       <c r="A108" s="2">
         <v>43769</v>
       </c>
       <c r="B108">
-        <v>2.0969262</v>
-      </c>
-      <c r="C108">
         <v>0.008099460024062699</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:2">
       <c r="A109" s="2">
         <v>43799</v>
       </c>
       <c r="B109">
-        <v>2.0757855</v>
-      </c>
-      <c r="C109">
         <v>-0.006826349300800283</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:2">
       <c r="A110" s="2">
         <v>43830</v>
       </c>
       <c r="B110">
-        <v>2.0966361</v>
-      </c>
-      <c r="C110">
         <v>0.006778951263018973</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:2">
       <c r="A111" s="2">
         <v>43861</v>
       </c>
       <c r="B111">
-        <v>2.1022736</v>
-      </c>
-      <c r="C111">
         <v>0.001820523890424308</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:2">
       <c r="A112" s="2">
         <v>43890</v>
       </c>
       <c r="B112">
-        <v>2.1393434</v>
-      </c>
-      <c r="C112">
         <v>0.01194923619889621</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:2">
       <c r="A113" s="2">
         <v>43921</v>
       </c>
       <c r="B113">
-        <v>2.1464757</v>
-      </c>
-      <c r="C113">
         <v>0.002271908195834893</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:2">
       <c r="A114" s="2">
         <v>43951</v>
       </c>
       <c r="B114">
-        <v>2.1859307</v>
-      </c>
-      <c r="C114">
         <v>0.01253942625395155</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:2">
       <c r="A115" s="2">
         <v>43982</v>
       </c>
       <c r="B115">
-        <v>2.1557632</v>
-      </c>
-      <c r="C115">
         <v>-0.009468975580667838</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:2">
       <c r="A116" s="2">
         <v>44012</v>
       </c>
       <c r="B116">
-        <v>2.1946022</v>
-      </c>
-      <c r="C116">
         <v>0.01230732394623257</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:2">
       <c r="A117" s="2">
         <v>44043</v>
       </c>
       <c r="B117">
-        <v>2.2261174</v>
-      </c>
-      <c r="C117">
         <v>0.009865140642550285</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:2">
       <c r="A118" s="2">
         <v>44074</v>
       </c>
       <c r="B118">
-        <v>2.2761419</v>
-      </c>
-      <c r="C118">
         <v>0.01550610030496702</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:2">
       <c r="A119" s="2">
         <v>44104</v>
       </c>
       <c r="B119">
-        <v>2.2726049</v>
-      </c>
-      <c r="C119">
         <v>-0.00107962356575575</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:2">
       <c r="A120" s="2">
         <v>44135</v>
       </c>
       <c r="B120">
-        <v>2.3225591</v>
-      </c>
-      <c r="C120">
         <v>0.01526435409297333</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:2">
       <c r="A121" s="2">
         <v>44165</v>
       </c>
       <c r="B121">
-        <v>2.3286051</v>
-      </c>
-      <c r="C121">
-        <v>0.001819681702576847</v>
+        <v>-0.004861734438373122</v>
       </c>
     </row>
   </sheetData>
